--- a/team_specific_matrix/FIU_B.xlsx
+++ b/team_specific_matrix/FIU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1835748792270532</v>
+        <v>0.1849056603773585</v>
       </c>
       <c r="C2">
-        <v>0.5748792270531401</v>
+        <v>0.569811320754717</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02415458937198068</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1256038647342995</v>
+        <v>0.1245283018867925</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09178743961352658</v>
+        <v>0.09811320754716982</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008064516129032258</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.02547770700636943</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03225806451612903</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.732484076433121</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1774193548387097</v>
+        <v>0.2038216560509554</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06896551724137931</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5862068965517241</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3448275862068966</v>
+        <v>0.3714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06521739130434782</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01449275362318841</v>
+        <v>0.01704545454545454</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07246376811594203</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2971014492753623</v>
+        <v>0.3125</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007246376811594203</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1376811594202899</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="R6">
-        <v>0.07971014492753623</v>
+        <v>0.07386363636363637</v>
       </c>
       <c r="S6">
-        <v>0.3260869565217391</v>
+        <v>0.3238636363636364</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1176470588235294</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009803921568627451</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0392156862745098</v>
+        <v>0.03731343283582089</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1567164179104478</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02941176470588235</v>
+        <v>0.02238805970149254</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1568627450980392</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="R7">
-        <v>0.08823529411764706</v>
+        <v>0.08955223880597014</v>
       </c>
       <c r="S7">
-        <v>0.392156862745098</v>
+        <v>0.417910447761194</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09782608695652174</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01449275362318841</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="E8">
-        <v>0.003623188405797101</v>
+        <v>0.002824858757062147</v>
       </c>
       <c r="F8">
-        <v>0.07246376811594203</v>
+        <v>0.06214689265536723</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1195652173913044</v>
+        <v>0.1299435028248588</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01811594202898551</v>
+        <v>0.01412429378531073</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1340579710144928</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="R8">
-        <v>0.09420289855072464</v>
+        <v>0.09322033898305085</v>
       </c>
       <c r="S8">
-        <v>0.4456521739130435</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.125</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01388888888888889</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06944444444444445</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1319444444444444</v>
+        <v>0.1467391304347826</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01388888888888889</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1597222222222222</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="R9">
-        <v>0.09027777777777778</v>
+        <v>0.09239130434782608</v>
       </c>
       <c r="S9">
-        <v>0.3958333333333333</v>
+        <v>0.3695652173913043</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1078748651564186</v>
+        <v>0.1085665818490246</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0226537216828479</v>
+        <v>0.02205258693808312</v>
       </c>
       <c r="E10">
-        <v>0.002157497303128371</v>
+        <v>0.001696352841391009</v>
       </c>
       <c r="F10">
-        <v>0.0593311758360302</v>
+        <v>0.05767599660729432</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1197411003236246</v>
+        <v>0.1170483460559796</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01618122977346278</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2060409924487595</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R10">
-        <v>0.104638619201726</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="S10">
-        <v>0.3613807982740022</v>
+        <v>0.356234096692112</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1301775147928994</v>
+        <v>0.1486486486486487</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1183431952662722</v>
+        <v>0.1036036036036036</v>
       </c>
       <c r="K11">
-        <v>0.2011834319526627</v>
+        <v>0.2117117117117117</v>
       </c>
       <c r="L11">
-        <v>0.5384615384615384</v>
+        <v>0.527027027027027</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01183431952662722</v>
+        <v>0.009009009009009009</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6631578947368421</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2947368421052631</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="K12">
-        <v>0.01052631578947368</v>
+        <v>0.008130081300813009</v>
       </c>
       <c r="L12">
-        <v>0.01052631578947368</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02105263157894737</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6538461538461539</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3076923076923077</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03846153846153846</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02649006622516556</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.152317880794702</v>
+        <v>0.1366120218579235</v>
       </c>
       <c r="I15">
-        <v>0.08609271523178808</v>
+        <v>0.07650273224043716</v>
       </c>
       <c r="J15">
-        <v>0.3509933774834437</v>
+        <v>0.366120218579235</v>
       </c>
       <c r="K15">
-        <v>0.02649006622516556</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02649006622516556</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04635761589403974</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2847682119205298</v>
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01492537313432836</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1492537313432836</v>
+        <v>0.1402439024390244</v>
       </c>
       <c r="I16">
-        <v>0.09701492537313433</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="J16">
-        <v>0.4477611940298508</v>
+        <v>0.4573170731707317</v>
       </c>
       <c r="K16">
-        <v>0.1044776119402985</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007462686567164179</v>
+        <v>0.01219512195121951</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03731343283582089</v>
+        <v>0.0426829268292683</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1417910447761194</v>
+        <v>0.1280487804878049</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.00353356890459364</v>
+        <v>0.01049868766404199</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1590106007067138</v>
+        <v>0.1653543307086614</v>
       </c>
       <c r="I17">
-        <v>0.0989399293286219</v>
+        <v>0.09973753280839895</v>
       </c>
       <c r="J17">
-        <v>0.4628975265017668</v>
+        <v>0.4593175853018373</v>
       </c>
       <c r="K17">
-        <v>0.0989399293286219</v>
+        <v>0.08136482939632546</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01413427561837456</v>
+        <v>0.01312335958005249</v>
       </c>
       <c r="N17">
-        <v>0.00353356890459364</v>
+        <v>0.002624671916010499</v>
       </c>
       <c r="O17">
-        <v>0.03886925795053003</v>
+        <v>0.03937007874015748</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1201413427561837</v>
+        <v>0.1286089238845144</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0261437908496732</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1503267973856209</v>
+        <v>0.1382978723404255</v>
       </c>
       <c r="I18">
-        <v>0.0915032679738562</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J18">
-        <v>0.4509803921568628</v>
+        <v>0.4734042553191489</v>
       </c>
       <c r="K18">
-        <v>0.0718954248366013</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0196078431372549</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06535947712418301</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1241830065359477</v>
+        <v>0.1170212765957447</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02002355712603062</v>
+        <v>0.01909090909090909</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1943462897526502</v>
+        <v>0.1981818181818182</v>
       </c>
       <c r="I19">
-        <v>0.09069493521790342</v>
+        <v>0.09454545454545454</v>
       </c>
       <c r="J19">
-        <v>0.3969375736160188</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="K19">
-        <v>0.08833922261484099</v>
+        <v>0.0890909090909091</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0176678445229682</v>
+        <v>0.01909090909090909</v>
       </c>
       <c r="N19">
-        <v>0.002355712603062426</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="O19">
-        <v>0.0800942285041225</v>
+        <v>0.07454545454545454</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1095406360424028</v>
+        <v>0.1218181818181818</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/FIU_B.xlsx
+++ b/team_specific_matrix/FIU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1849056603773585</v>
+        <v>0.1830508474576271</v>
       </c>
       <c r="C2">
-        <v>0.569811320754717</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02264150943396226</v>
+        <v>0.02033898305084746</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1245283018867925</v>
+        <v>0.1254237288135593</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09811320754716982</v>
+        <v>0.1016949152542373</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006369426751592357</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="C3">
-        <v>0.02547770700636943</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03184713375796178</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.732484076433121</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2038216560509554</v>
+        <v>0.2126436781609195</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05714285714285714</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5714285714285714</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3714285714285714</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05681818181818182</v>
+        <v>0.05434782608695652</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01704545454545454</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06818181818181818</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3125</v>
+        <v>0.3152173913043478</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01136363636363636</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1363636363636364</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="R6">
-        <v>0.07386363636363637</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="S6">
-        <v>0.3238636363636364</v>
+        <v>0.3315217391304348</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1194029850746269</v>
+        <v>0.1301369863013699</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007462686567164179</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03731343283582089</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1567164179104478</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02238805970149254</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1492537313432836</v>
+        <v>0.1438356164383562</v>
       </c>
       <c r="R7">
-        <v>0.08955223880597014</v>
+        <v>0.08904109589041095</v>
       </c>
       <c r="S7">
-        <v>0.417910447761194</v>
+        <v>0.4246575342465753</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09322033898305085</v>
+        <v>0.09793814432989691</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01129943502824859</v>
+        <v>0.01288659793814433</v>
       </c>
       <c r="E8">
-        <v>0.002824858757062147</v>
+        <v>0.002577319587628866</v>
       </c>
       <c r="F8">
-        <v>0.06214689265536723</v>
+        <v>0.05927835051546392</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1299435028248588</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01412429378531073</v>
+        <v>0.01288659793814433</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1355932203389831</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="R8">
-        <v>0.09322033898305085</v>
+        <v>0.09020618556701031</v>
       </c>
       <c r="S8">
-        <v>0.4576271186440678</v>
+        <v>0.4561855670103093</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1304347826086956</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0108695652173913</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07065217391304347</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1467391304347826</v>
+        <v>0.1519607843137255</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01630434782608696</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1630434782608696</v>
+        <v>0.1813725490196078</v>
       </c>
       <c r="R9">
-        <v>0.09239130434782608</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S9">
-        <v>0.3695652173913043</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1085665818490246</v>
+        <v>0.1108527131782946</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02205258693808312</v>
+        <v>0.02170542635658915</v>
       </c>
       <c r="E10">
-        <v>0.001696352841391009</v>
+        <v>0.001550387596899225</v>
       </c>
       <c r="F10">
-        <v>0.05767599660729432</v>
+        <v>0.05503875968992248</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1170483460559796</v>
+        <v>0.1201550387596899</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01526717557251908</v>
+        <v>0.01472868217054264</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2222222222222222</v>
+        <v>0.2271317829457364</v>
       </c>
       <c r="R10">
-        <v>0.09923664122137404</v>
+        <v>0.09612403100775194</v>
       </c>
       <c r="S10">
-        <v>0.356234096692112</v>
+        <v>0.3527131782945737</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1486486486486487</v>
+        <v>0.1551020408163265</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1036036036036036</v>
+        <v>0.09795918367346938</v>
       </c>
       <c r="K11">
-        <v>0.2117117117117117</v>
+        <v>0.2122448979591837</v>
       </c>
       <c r="L11">
-        <v>0.527027027027027</v>
+        <v>0.5265306122448979</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009009009009009009</v>
+        <v>0.00816326530612245</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6504065040650406</v>
+        <v>0.6397058823529411</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3008130081300813</v>
+        <v>0.3161764705882353</v>
       </c>
       <c r="K12">
-        <v>0.008130081300813009</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L12">
-        <v>0.02439024390243903</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01626016260162602</v>
+        <v>0.01470588235294118</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0273224043715847</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1366120218579235</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="I15">
-        <v>0.07650273224043716</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="J15">
-        <v>0.366120218579235</v>
+        <v>0.3811881188118812</v>
       </c>
       <c r="K15">
-        <v>0.0273224043715847</v>
+        <v>0.02475247524752475</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03278688524590164</v>
+        <v>0.0297029702970297</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0546448087431694</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2786885245901639</v>
+        <v>0.2524752475247525</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01829268292682927</v>
+        <v>0.01675977653631285</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1402439024390244</v>
+        <v>0.1452513966480447</v>
       </c>
       <c r="I16">
-        <v>0.07926829268292683</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="J16">
-        <v>0.4573170731707317</v>
+        <v>0.4525139664804469</v>
       </c>
       <c r="K16">
-        <v>0.1219512195121951</v>
+        <v>0.1173184357541899</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01219512195121951</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0426829268292683</v>
+        <v>0.05027932960893855</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1280487804878049</v>
+        <v>0.1284916201117318</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01049868766404199</v>
+        <v>0.009456264775413711</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1653543307086614</v>
+        <v>0.1678486997635934</v>
       </c>
       <c r="I17">
-        <v>0.09973753280839895</v>
+        <v>0.09692671394799054</v>
       </c>
       <c r="J17">
-        <v>0.4593175853018373</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="K17">
-        <v>0.08136482939632546</v>
+        <v>0.08983451536643026</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01312335958005249</v>
+        <v>0.01182033096926714</v>
       </c>
       <c r="N17">
-        <v>0.002624671916010499</v>
+        <v>0.002364066193853428</v>
       </c>
       <c r="O17">
-        <v>0.03937007874015748</v>
+        <v>0.04728132387706856</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1286089238845144</v>
+        <v>0.1205673758865248</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02659574468085106</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1382978723404255</v>
+        <v>0.14</v>
       </c>
       <c r="I18">
-        <v>0.0851063829787234</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.4734042553191489</v>
+        <v>0.475</v>
       </c>
       <c r="K18">
-        <v>0.0797872340425532</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01595744680851064</v>
+        <v>0.015</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06382978723404255</v>
+        <v>0.06</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1170212765957447</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01909090909090909</v>
+        <v>0.01769165964616681</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1981818181818182</v>
+        <v>0.1996630160067397</v>
       </c>
       <c r="I19">
-        <v>0.09454545454545454</v>
+        <v>0.09856781802864364</v>
       </c>
       <c r="J19">
-        <v>0.3818181818181818</v>
+        <v>0.3807919123841618</v>
       </c>
       <c r="K19">
-        <v>0.0890909090909091</v>
+        <v>0.08930075821398484</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01909090909090909</v>
+        <v>0.01769165964616681</v>
       </c>
       <c r="N19">
-        <v>0.001818181818181818</v>
+        <v>0.002527379949452401</v>
       </c>
       <c r="O19">
-        <v>0.07454545454545454</v>
+        <v>0.07413647851727043</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1218181818181818</v>
+        <v>0.1196293176074136</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/FIU_B.xlsx
+++ b/team_specific_matrix/FIU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1830508474576271</v>
+        <v>0.1929260450160772</v>
       </c>
       <c r="C2">
-        <v>0.5694915254237288</v>
+        <v>0.5530546623794212</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02033898305084746</v>
+        <v>0.022508038585209</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1254237288135593</v>
+        <v>0.1318327974276527</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1016949152542373</v>
+        <v>0.09967845659163987</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005747126436781609</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.02298850574712644</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03448275862068965</v>
+        <v>0.03370786516853932</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7241379310344828</v>
+        <v>0.7247191011235955</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2126436781609195</v>
+        <v>0.2134831460674157</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08108108108108109</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5405405405405406</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3783783783783784</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05434782608695652</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01630434782608696</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07065217391304347</v>
+        <v>0.07329842931937172</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3152173913043478</v>
+        <v>0.3141361256544503</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0108695652173913</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1304347826086956</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="R6">
-        <v>0.07065217391304347</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="S6">
-        <v>0.3315217391304348</v>
+        <v>0.3298429319371728</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1301369863013699</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00684931506849315</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03424657534246575</v>
+        <v>0.03870967741935484</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1506849315068493</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02054794520547945</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1438356164383562</v>
+        <v>0.1419354838709677</v>
       </c>
       <c r="R7">
-        <v>0.08904109589041095</v>
+        <v>0.08387096774193549</v>
       </c>
       <c r="S7">
-        <v>0.4246575342465753</v>
+        <v>0.4193548387096774</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09793814432989691</v>
+        <v>0.09925558312655088</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01288659793814433</v>
+        <v>0.01488833746898263</v>
       </c>
       <c r="E8">
-        <v>0.002577319587628866</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="F8">
-        <v>0.05927835051546392</v>
+        <v>0.05955334987593052</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.134020618556701</v>
+        <v>0.141439205955335</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01288659793814433</v>
+        <v>0.01240694789081886</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.134020618556701</v>
+        <v>0.1315136476426799</v>
       </c>
       <c r="R8">
-        <v>0.09020618556701031</v>
+        <v>0.08933002481389578</v>
       </c>
       <c r="S8">
-        <v>0.4561855670103093</v>
+        <v>0.4491315136476427</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1323529411764706</v>
+        <v>0.1279620853080569</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009803921568627451</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06862745098039216</v>
+        <v>0.06635071090047394</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1519607843137255</v>
+        <v>0.1563981042654028</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01470588235294118</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1813725490196078</v>
+        <v>0.1848341232227488</v>
       </c>
       <c r="R9">
-        <v>0.08823529411764706</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="S9">
-        <v>0.3529411764705883</v>
+        <v>0.3554502369668247</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1108527131782946</v>
+        <v>0.1099554234769688</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02170542635658915</v>
+        <v>0.02228826151560178</v>
       </c>
       <c r="E10">
-        <v>0.001550387596899225</v>
+        <v>0.001485884101040119</v>
       </c>
       <c r="F10">
-        <v>0.05503875968992248</v>
+        <v>0.05349182763744428</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1201550387596899</v>
+        <v>0.1166419019316493</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01472868217054264</v>
+        <v>0.01411589895988113</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2271317829457364</v>
+        <v>0.2258543833580981</v>
       </c>
       <c r="R10">
-        <v>0.09612403100775194</v>
+        <v>0.09806835066864784</v>
       </c>
       <c r="S10">
-        <v>0.3527131782945737</v>
+        <v>0.3580980683506687</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1551020408163265</v>
+        <v>0.1505791505791506</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09795918367346938</v>
+        <v>0.09652509652509653</v>
       </c>
       <c r="K11">
-        <v>0.2122448979591837</v>
+        <v>0.2084942084942085</v>
       </c>
       <c r="L11">
-        <v>0.5265306122448979</v>
+        <v>0.5366795366795367</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00816326530612245</v>
+        <v>0.007722007722007722</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6397058823529411</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3161764705882353</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="K12">
-        <v>0.007352941176470588</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="L12">
-        <v>0.02205882352941177</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01470588235294118</v>
+        <v>0.0136986301369863</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6764705882352942</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2941176470588235</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0297029702970297</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1386138613861386</v>
+        <v>0.1346153846153846</v>
       </c>
       <c r="I15">
-        <v>0.08415841584158416</v>
+        <v>0.08173076923076923</v>
       </c>
       <c r="J15">
-        <v>0.3811881188118812</v>
+        <v>0.3942307692307692</v>
       </c>
       <c r="K15">
-        <v>0.02475247524752475</v>
+        <v>0.02403846153846154</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0297029702970297</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0594059405940594</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2524752475247525</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01675977653631285</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1452513966480447</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="I16">
-        <v>0.0782122905027933</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="J16">
-        <v>0.4525139664804469</v>
+        <v>0.4521276595744681</v>
       </c>
       <c r="K16">
-        <v>0.1173184357541899</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0111731843575419</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05027932960893855</v>
+        <v>0.04787234042553191</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1284916201117318</v>
+        <v>0.1223404255319149</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009456264775413711</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1678486997635934</v>
+        <v>0.1712328767123288</v>
       </c>
       <c r="I17">
-        <v>0.09692671394799054</v>
+        <v>0.09817351598173515</v>
       </c>
       <c r="J17">
-        <v>0.4539007092198581</v>
+        <v>0.454337899543379</v>
       </c>
       <c r="K17">
-        <v>0.08983451536643026</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01182033096926714</v>
+        <v>0.01141552511415525</v>
       </c>
       <c r="N17">
-        <v>0.002364066193853428</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="O17">
-        <v>0.04728132387706856</v>
+        <v>0.045662100456621</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1205673758865248</v>
+        <v>0.1164383561643836</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.025</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.14</v>
+        <v>0.138755980861244</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.07655502392344497</v>
       </c>
       <c r="J18">
-        <v>0.475</v>
+        <v>0.4784688995215311</v>
       </c>
       <c r="K18">
-        <v>0.08500000000000001</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.015</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06</v>
+        <v>0.05741626794258373</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.12</v>
+        <v>0.1196172248803828</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01769165964616681</v>
+        <v>0.01857835218093699</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1996630160067397</v>
+        <v>0.197092084006462</v>
       </c>
       <c r="I19">
-        <v>0.09856781802864364</v>
+        <v>0.09854604200323101</v>
       </c>
       <c r="J19">
-        <v>0.3807919123841618</v>
+        <v>0.3788368336025848</v>
       </c>
       <c r="K19">
-        <v>0.08930075821398484</v>
+        <v>0.09127625201938611</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01769165964616681</v>
+        <v>0.01857835218093699</v>
       </c>
       <c r="N19">
-        <v>0.002527379949452401</v>
+        <v>0.002423263327948304</v>
       </c>
       <c r="O19">
-        <v>0.07413647851727043</v>
+        <v>0.07512116316639741</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1196293176074136</v>
+        <v>0.1195476575121163</v>
       </c>
     </row>
   </sheetData>
